--- a/PM/Sound.xlsx
+++ b/PM/Sound.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Type</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Élancement lorsque le joueur fait sauter le personnage</t>
+  </si>
+  <si>
+    <t>transit vers le thème du menu</t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +598,9 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -611,6 +617,9 @@
       </c>
       <c r="E5" t="s">
         <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
